--- a/URS/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
+++ b/URS/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7824AA-B005-4A03-A7A5-8F200A89B387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="178">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -113,9 +113,6 @@
     <t>計息迄日</t>
   </si>
   <si>
-    <t>媒體碼</t>
-  </si>
-  <si>
     <t>RepayAcctNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -222,10 +219,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Default為0，整批入帳成功，回寫此欄位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>L4451建檔交易產生者，此欄位由額度檔抓取</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -284,13 +277,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1:ACH新光
-2:ACH他行
-3:郵局
-4:15日
-5:非15日</t>
-  </si>
-  <si>
     <t>MediaDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -311,18 +297,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MediaCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayBank</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>repayBankEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>deductNoticeA</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -421,10 +395,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">RepayBank = , AND EntryDate &gt;= ,AND EntryDate &lt;= </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>EntryDate &gt;= ,AND EntryDate &lt;= ,AND RepayBank = ,AND RepayType =</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -446,13 +416,6 @@
   </si>
   <si>
     <t>TempAmt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA:未產
-Y:已產
-N:已產，扣款金額為0
-E:已提回，回傳碼不為正常</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -477,10 +440,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>暫收抵繳金額</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EntryDate = ,AND CustNo = ,AND FacmNo = ,AND RepayType = ,AND PayIntDate =</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -553,10 +512,6 @@
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L4450檢核錯誤，扣款帳號未授權等等</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -609,12 +564,175 @@
 2.為凍結名單/未確定名單</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>暫收款抵繳金額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.產出檢核(L4450、L4451)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新時機</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aml檢核未過</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aml</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deduct</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號授權檢核未過</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過帳戶限額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣款金額為零</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態碼(1)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>出檔檢核</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AML回應碼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref.BankAuthAct.Status</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref.TxAmlLog.ConfirmStatus</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒體碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回應代碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA:未產
+Y:已產
+N:已產，扣款金額為0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白:未回 00:扣款成功 &gt;00 :扣款失敗
+失敗原因 : ref. CdCode ProcCode 處理說明
+ ACH  : 002 + ReturnCode(2)
+ 郵局 : 003 + ReturnCode(2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayBank</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:ACH新光
+2:ACH他行
+3:郵局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repayBankEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>repayBankNotEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RepayBank = , AND EntryDate &gt;= ,AND EntryDate &lt;= </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RepayBank &lt;&gt; , AND EntryDate &gt;= ,AND EntryDate &lt;= </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTlrNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳時更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳時更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳時更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -710,6 +828,20 @@
       <charset val="136"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="思源宋體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -797,7 +929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +1044,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -923,12 +1073,33 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1019,23 +1190,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1071,23 +1225,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1263,11 +1400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1282,23 +1419,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1310,12 +1447,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1325,10 +1462,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1336,12 +1473,12 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1349,12 +1486,12 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1362,10 +1499,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1400,13 +1537,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="21">
         <v>8</v>
@@ -1417,13 +1554,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="21">
         <v>7</v>
@@ -1434,13 +1571,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="21">
         <v>3</v>
@@ -1451,13 +1588,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="21">
         <v>3</v>
@@ -1470,19 +1607,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="21">
         <v>2</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1490,13 +1627,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="21">
         <v>8</v>
@@ -1509,13 +1646,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="21">
         <v>8</v>
@@ -1526,20 +1663,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="21">
         <v>3</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4">
@@ -1547,19 +1684,19 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="21">
         <v>3</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1567,19 +1704,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="36">
         <v>14</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1587,20 +1724,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="21">
         <v>2</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1608,13 +1745,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="21">
         <v>14</v>
@@ -1627,13 +1764,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="21">
         <v>14</v>
@@ -1646,19 +1783,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="E22" s="21">
         <v>14</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1666,20 +1803,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="21">
         <v>8</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1687,19 +1824,19 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="21">
         <v>8</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48.6">
@@ -1707,39 +1844,39 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="21">
         <v>1</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="64.8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="48.6">
       <c r="A26" s="26">
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E26" s="21">
         <v>1</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="32.4">
@@ -1750,16 +1887,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="21">
         <v>2</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1767,19 +1904,19 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="21">
         <v>100</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1787,19 +1924,19 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="19">
         <v>10</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1807,13 +1944,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="26">
         <v>8</v>
@@ -1826,20 +1963,20 @@
         <v>23</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="26">
         <v>1</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="22" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1847,41 +1984,41 @@
         <v>24</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E32" s="28">
         <v>8</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="81">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="48.6">
       <c r="A33" s="26">
         <v>25</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="28">
         <v>1</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="22" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1889,20 +2026,20 @@
         <v>26</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E34" s="28">
         <v>6</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1910,147 +2047,208 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="E35" s="21">
         <v>8</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="31" customFormat="1" ht="64.8">
-      <c r="A36" s="26">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="54" customFormat="1">
+      <c r="A36" s="48">
         <v>28</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="29">
-        <v>1</v>
-      </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="26">
+      <c r="B36" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="29">
-        <v>300</v>
-      </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="E36" s="48">
+        <v>6</v>
+      </c>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="54" customFormat="1">
+      <c r="A37" s="48">
+        <v>29</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="48">
+        <v>8</v>
+      </c>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="31" customFormat="1" ht="64.8">
       <c r="A38" s="26">
         <v>30</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="B38" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="29">
+        <v>1</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="31" customFormat="1" ht="64.8">
       <c r="A39" s="26">
         <v>31</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="21">
-        <v>6</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="B39" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="29">
+        <v>2</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="22.2" customHeight="1">
       <c r="A40" s="26">
         <v>32</v>
       </c>
-      <c r="B40" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>90</v>
-      </c>
+      <c r="B40" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="29">
+        <v>300</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="26">
         <v>33</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="21">
+        <v>82</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="26">
+        <v>34</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="21">
         <v>6</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F42" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="26">
+        <v>35</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="35" t="s">
-        <v>98</v>
+      <c r="D43" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="26">
+        <v>36</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="21">
+        <v>6</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2070,12 +2268,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2099,108 +2297,122 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>169</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2208,4 +2420,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="41"/>
+    <col min="2" max="2" width="29.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="21" style="41" customWidth="1"/>
+    <col min="5" max="5" width="63.21875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="55.109375" style="41" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="43" customFormat="1">
+      <c r="B1" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="C5" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="E6" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/URS/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
+++ b/URS/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="180">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>PrevIntDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FacmNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -303,10 +299,6 @@
   <si>
     <t>RepayType</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryDate &gt;= ,AND EntryDate &lt;= ,AND RepayType =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>撥款</t>
@@ -454,10 +446,6 @@
   <si>
     <t>BormNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND RepayType = ,AND PayIntDate = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EntryDate DESC</t>
@@ -726,6 +714,26 @@
   <si>
     <t>入帳時更新</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrevIntDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND RepayType = ,AND PayIntDate = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND PrevIntDate =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL4450PrevIntDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryDate &gt;= ,AND EntryDate &lt;= ,AND RepayType =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1062,6 +1070,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1073,27 +1102,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1403,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1419,23 +1427,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1447,12 +1455,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1462,10 +1470,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1473,12 +1481,12 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1486,12 +1494,12 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1499,10 +1507,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1537,13 +1545,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="21">
         <v>8</v>
@@ -1571,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>21</v>
@@ -1588,10 +1596,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>28</v>
@@ -1607,10 +1615,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>28</v>
@@ -1619,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1627,13 +1635,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="21">
         <v>8</v>
@@ -1646,13 +1654,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="21">
         <v>8</v>
@@ -1663,20 +1671,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="21">
         <v>3</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4">
@@ -1684,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>22</v>
@@ -1696,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1716,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1724,20 +1732,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="E19" s="21">
         <v>2</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1745,10 +1753,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>28</v>
@@ -1764,10 +1772,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>28</v>
@@ -1786,7 +1794,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>28</v>
@@ -1795,7 +1803,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1803,20 +1811,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="21">
         <v>8</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1824,19 +1832,19 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="21">
         <v>8</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48.6">
@@ -1844,10 +1852,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>29</v>
@@ -1856,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48.6">
@@ -1864,19 +1872,19 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="21">
         <v>1</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="32.4">
@@ -1887,7 +1895,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>29</v>
@@ -1896,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1904,10 +1912,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>30</v>
@@ -1916,7 +1924,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1924,10 +1932,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>29</v>
@@ -1936,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1944,13 +1952,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="26">
         <v>8</v>
@@ -1963,10 +1971,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>29</v>
@@ -1976,7 +1984,7 @@
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1984,20 +1992,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>57</v>
       </c>
       <c r="E32" s="28">
         <v>8</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="48.6">
@@ -2005,10 +2013,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>29</v>
@@ -2018,7 +2026,7 @@
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2026,20 +2034,20 @@
         <v>26</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="28">
         <v>6</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2047,61 +2055,61 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="E35" s="21">
         <v>8</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="54" customFormat="1">
-      <c r="A36" s="48">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="50" customFormat="1">
+      <c r="A36" s="44">
         <v>28</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="44">
+        <v>6</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="50" t="s">
+    </row>
+    <row r="37" spans="1:7" s="50" customFormat="1">
+      <c r="A37" s="44">
+        <v>29</v>
+      </c>
+      <c r="B37" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="C37" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="48">
-        <v>6</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="54" customFormat="1">
-      <c r="A37" s="48">
-        <v>29</v>
-      </c>
-      <c r="B37" s="49" t="s">
+      <c r="E37" s="44">
+        <v>8</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49" t="s">
         <v>174</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="48">
-        <v>8</v>
-      </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="31" customFormat="1" ht="64.8">
@@ -2109,20 +2117,20 @@
         <v>30</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="29">
         <v>1</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="31" customFormat="1" ht="64.8">
@@ -2130,20 +2138,20 @@
         <v>31</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" s="29">
         <v>2</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="22.2" customHeight="1">
@@ -2151,13 +2159,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E40" s="29">
         <v>300</v>
@@ -2170,20 +2178,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>82</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2191,19 +2199,19 @@
         <v>34</v>
       </c>
       <c r="B42" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>87</v>
       </c>
       <c r="E42" s="21">
         <v>6</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G42" s="35"/>
     </row>
@@ -2212,20 +2220,20 @@
         <v>35</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2233,22 +2241,22 @@
         <v>36</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E44" s="21">
         <v>6</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2269,17 +2277,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="2" max="2" width="92.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -2297,122 +2305,133 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2443,53 +2462,53 @@
   <sheetData>
     <row r="1" spans="2:6" s="43" customFormat="1">
       <c r="B1" s="39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="41" t="s">
         <v>154</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -2498,18 +2517,18 @@
     </row>
     <row r="5" spans="2:6">
       <c r="C5" s="41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="E6" s="41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
